--- a/QC.xlsx
+++ b/QC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onenrg-my.sharepoint.com/personal/lane_frasier_nrg_com/Documents/Desktop/Code/DE Scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_07192EC4557D68DEE54878D6425DCE3A874521B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D9C54C4-C836-4661-9775-1D8F9FCA14A2}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_07192EC4557D68DEE54878D6425DCE3A874521B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B4B4E0D-754F-43B1-A6A7-1623FF7949F8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="32580" yWindow="3450" windowWidth="14400" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -963,7 +963,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1019,7 +1019,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1325,12 +1325,13 @@
   <dimension ref="A1:BA62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="P13" sqref="P12:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38.90625" customWidth="1"/>
+    <col min="22" max="22" width="22.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.35">
